--- a/sample.xlsx
+++ b/sample.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MySheet" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NewSheet" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YourSheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Copied Sheet" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,7 +461,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -481,4 +490,30 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>